--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apu.huang\OneDrive - Etekcity\Documents\UiPath\REFramework_test\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apu.huang\OneDrive - Etekcity\Documents\UiPath\submitInovice_SPS_REFrame\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D7B37-D7CC-48B7-AD60-7BEC164B6720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF710F-8A7F-4367-B981-1831A84644C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -159,13 +159,22 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>myFirstQueue</t>
-  </si>
-  <si>
-    <t>https://commerce.spscommerce.com/fulfillment/transactions/list/</t>
-  </si>
-  <si>
-    <t>urlSPS</t>
+    <t>accountSPS</t>
+  </si>
+  <si>
+    <t>SPS_login_PWD</t>
+  </si>
+  <si>
+    <t>SPS_login_account</t>
+  </si>
+  <si>
+    <t>passwordSPS</t>
+  </si>
+  <si>
+    <t>urlTransactionsSPS</t>
+  </si>
+  <si>
+    <t>HD_Invoice_submit</t>
   </si>
 </sst>
 </file>
@@ -552,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -603,7 +612,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -632,12 +641,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1632,11 +1636,8 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{BB19932C-8728-4C3F-8D80-67711BD2CE06}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2807,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2855,9 +2856,31 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
